--- a/data/trans_dic/P69$dolorEspalda-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P69$dolorEspalda-Edad-trans_dic.xlsx
@@ -708,38 +708,38 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6955417246854477</v>
+        <v>0.6870971142052721</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4025142329319568</v>
+        <v>0.4096651569833151</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2986888207576228</v>
+        <v>0.2972308211804134</v>
       </c>
       <c r="F5" s="5" t="inlineStr"/>
       <c r="G5" s="5" t="n">
-        <v>0.6599348151172225</v>
+        <v>0.6359933720510446</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.4060494031832481</v>
+        <v>0.4922023965330968</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.6931769785639613</v>
+        <v>0.6180021943622436</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.3214550673979055</v>
+        <v>0.2836396280155176</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.72669416932206</v>
+        <v>0.7303052524760101</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.5201366524169082</v>
+        <v>0.5561212469640993</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.5020893026618826</v>
+        <v>0.5076027244793561</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.529900517534956</v>
+        <v>0.546490580642903</v>
       </c>
     </row>
     <row r="6">
@@ -750,17 +750,17 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.907141780908033</v>
+        <v>0.9070876866757674</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9246866212873917</v>
+        <v>0.91904218396111</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.7929316843843537</v>
+        <v>0.7831475288550416</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.9549446433195454</v>
+        <v>0.9543613758144974</v>
       </c>
       <c r="H6" s="5" t="n">
         <v>1</v>
@@ -769,19 +769,19 @@
         <v>1</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9326888979546061</v>
+        <v>0.930873474182543</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.9081980904333916</v>
+        <v>0.9143267460993166</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.9086870650417944</v>
+        <v>0.9108468988320064</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.8477914153984045</v>
+        <v>0.8476514550737794</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.952931955960847</v>
+        <v>0.9574013046062105</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.8177414179264075</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.8492877965798966</v>
+        <v>0.8492877965798964</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.7472066287350346</v>
@@ -817,7 +817,7 @@
         <v>0.9188854510244129</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.6487815676561612</v>
+        <v>0.6487815676561611</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.7304392605776774</v>
@@ -829,7 +829,7 @@
         <v>0.8543589535636656</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.7640021161889538</v>
+        <v>0.7640021161889539</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.641675717262509</v>
+        <v>0.6345806199182406</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.6686510887469669</v>
+        <v>0.6706949856037829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7102792934599672</v>
+        <v>0.7139205169274407</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.7098332638493807</v>
+        <v>0.7009856315100956</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.639263228472768</v>
+        <v>0.6458720076706738</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.6661351925237813</v>
+        <v>0.6689857944028875</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8145104298086338</v>
+        <v>0.8162998989837145</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.4890602558502323</v>
+        <v>0.5007453051910592</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.6676091262588666</v>
+        <v>0.6693282695432167</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.7049422685219328</v>
+        <v>0.6984948085089855</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.7830405806320168</v>
+        <v>0.783926725086721</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.660640757870379</v>
+        <v>0.6683724807395472</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7930667440158553</v>
+        <v>0.7939494343208865</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8521314195828883</v>
+        <v>0.8473762623599683</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8926108381368011</v>
+        <v>0.8916998321127504</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9393845430829976</v>
+        <v>0.9352752389745522</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8358655836049655</v>
+        <v>0.8466365501174401</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.8768777873035921</v>
+        <v>0.8770906408622772</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9788960461402439</v>
+        <v>0.9797490412929408</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.7728362906605084</v>
+        <v>0.7716563216186049</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.7939349582153865</v>
+        <v>0.7937202420317436</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.8428049084446841</v>
+        <v>0.835581913471976</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.9099589130291125</v>
+        <v>0.9103384625617276</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.8427380699772614</v>
+        <v>0.8446688566540853</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>0.7811206624157904</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7766852662475889</v>
+        <v>0.7766852662475892</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7932413350799983</v>
@@ -953,7 +953,7 @@
         <v>0.8259729656333312</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.7951686753845636</v>
+        <v>0.7951686753845635</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.7247589552105775</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.6029797140593351</v>
+        <v>0.5904357491921547</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5836769617744311</v>
+        <v>0.5955257784492392</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6817619556928926</v>
+        <v>0.6911742919550092</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6766416403501384</v>
+        <v>0.6788989329133043</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6871739241630768</v>
+        <v>0.6883804458972655</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6783046664276132</v>
+        <v>0.6653875222636569</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7180759714242169</v>
+        <v>0.7196826320054941</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.711876330531234</v>
+        <v>0.7145646661223699</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.6579249988621415</v>
+        <v>0.655097232806668</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6671144830322734</v>
+        <v>0.6644390611353141</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7338672004618187</v>
+        <v>0.7256825876101114</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7211355864277513</v>
+        <v>0.7201681409603895</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.7571334757242221</v>
+        <v>0.7563525732288287</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.7853980112564833</v>
+        <v>0.7832995161852918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8458942660461698</v>
+        <v>0.8446403720915829</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8515385258606805</v>
+        <v>0.8507183464448644</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8838950436508305</v>
+        <v>0.8759390520965892</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8737145511335505</v>
+        <v>0.8752486531931644</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9038410050441832</v>
+        <v>0.9085582314980235</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.8653287518614258</v>
+        <v>0.8592667265874215</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.7848606537243116</v>
+        <v>0.778620781326922</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.8034388222104912</v>
+        <v>0.7972575101393939</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.8517459444540753</v>
+        <v>0.8537157849368976</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8369980209417134</v>
+        <v>0.8373481329345931</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.8024166717897928</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.8038137753354283</v>
+        <v>0.8038137753354284</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.7817525048614609</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6689677658736561</v>
+        <v>0.6687446356669058</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6582298581479334</v>
+        <v>0.6537958531101208</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5443206198002533</v>
+        <v>0.5427623318343556</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.581747249518653</v>
+        <v>0.5812539459904776</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.6784325400158761</v>
+        <v>0.6946819949856811</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.49078954930543</v>
+        <v>0.494932453629323</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.6873601419342381</v>
+        <v>0.6720802884164139</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.7437438313655638</v>
+        <v>0.7382140605361244</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.7044805466109907</v>
+        <v>0.7104157713261594</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.643483520840732</v>
+        <v>0.642261021859423</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6197391230444367</v>
+        <v>0.6282234740792199</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.6892630583597763</v>
+        <v>0.6904711627439973</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.838906771539357</v>
+        <v>0.8367278212927135</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8485617974023372</v>
+        <v>0.8547855294864418</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7500531375061611</v>
+        <v>0.7600959220654288</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7609908219736362</v>
+        <v>0.7655103487542128</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9198570732167526</v>
+        <v>0.9210756113260253</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8108202268005974</v>
+        <v>0.8008708740461326</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.907378953848514</v>
+        <v>0.9040690897240516</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.8617663541695675</v>
+        <v>0.8558578181352398</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.8447401995451878</v>
+        <v>0.8454529545183961</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.8089116824365368</v>
+        <v>0.809581059862453</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7802702141381838</v>
+        <v>0.7849133147969698</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.8028645764470642</v>
+        <v>0.7945431157117392</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.8560607895211478</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.8129701643880675</v>
+        <v>0.8129701643880676</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.8450673433656108</v>
@@ -1237,7 +1237,7 @@
         <v>0.8170103797985014</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.7428635811233387</v>
+        <v>0.7428635811233386</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.7963874551539087</v>
+        <v>0.7739572843185576</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.5904525200155195</v>
+        <v>0.6092630634384865</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6461457290857939</v>
+        <v>0.6326792106318506</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.5652444493449117</v>
+        <v>0.5693694940978703</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3593929246377721</v>
+        <v>0.3524632301206361</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7392068750487453</v>
+        <v>0.7099314249169441</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.696219944378848</v>
+        <v>0.6738488929147127</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.7365180737032923</v>
+        <v>0.7254053990261541</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.7341779125019448</v>
+        <v>0.7321516039392997</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.7047198672267174</v>
+        <v>0.7032969723807242</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.7064529288758038</v>
+        <v>0.7075119603665906</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.6706048531846805</v>
+        <v>0.665623038496222</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9700894572707215</v>
+        <v>0.9680200068567106</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8580474607335422</v>
+        <v>0.8662806340251579</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.902087475344801</v>
+        <v>0.9019248689102098</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7756201327552616</v>
+        <v>0.7794640778855877</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.8584680090133119</v>
+        <v>0.858548008866188</v>
       </c>
       <c r="H18" s="5" t="n">
         <v>1</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9630431372048525</v>
+        <v>0.963848130705123</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8789811599772107</v>
+        <v>0.8820285535396444</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9249554907504332</v>
+        <v>0.9183957746714243</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.889998873169539</v>
+        <v>0.8948342730951143</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.8998717816474237</v>
+        <v>0.8990934443540158</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.806331684863682</v>
+        <v>0.8078445002999398</v>
       </c>
     </row>
     <row r="19">
@@ -1373,7 +1373,7 @@
         <v>0.7859710900044131</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.7611202636332354</v>
+        <v>0.7611202636332353</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7112782480957366</v>
+        <v>0.7072429394357618</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6967124577993591</v>
+        <v>0.6897429934117537</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7007093309738359</v>
+        <v>0.6975274579150679</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6991260945850604</v>
+        <v>0.7005325011712995</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.7254192725872813</v>
+        <v>0.7177327577425068</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7172322483835627</v>
+        <v>0.7196885891690772</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.7960905089015456</v>
+        <v>0.7980931011079589</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.730872359977396</v>
+        <v>0.7350602030757026</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.72400084746952</v>
+        <v>0.7261050829676298</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.7175929406656062</v>
+        <v>0.7149433259374028</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.748600155604299</v>
+        <v>0.748081232797209</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.7282770644962686</v>
+        <v>0.7270544436719366</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7892653238315847</v>
+        <v>0.7868738769702831</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7919651429717014</v>
+        <v>0.7872585153202986</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7985646505335078</v>
+        <v>0.7962445682660476</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.7952161142674987</v>
+        <v>0.7968938379677877</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.8283479674172423</v>
+        <v>0.8338607545681462</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.8312998425582269</v>
+        <v>0.8384756549216308</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8966126212754721</v>
+        <v>0.8950642832091905</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.8165005038636576</v>
+        <v>0.8153312131995183</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.7912102802791806</v>
+        <v>0.7899833629964365</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.7950171336333004</v>
+        <v>0.7947547886269387</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.8186465252177267</v>
+        <v>0.8191199661963452</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.7925580916190705</v>
+        <v>0.7900894126407971</v>
       </c>
     </row>
     <row r="22">
@@ -1733,38 +1733,38 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>32115</v>
+        <v>31725</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>4157</v>
+        <v>4231</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>5123</v>
+        <v>5098</v>
       </c>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="n">
-        <v>13106</v>
+        <v>12630</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>4083</v>
+        <v>4950</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>8071</v>
+        <v>7195</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5111</v>
+        <v>4510</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>47984</v>
+        <v>48223</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>10602</v>
+        <v>11335</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>14457</v>
+        <v>14616</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>13310</v>
+        <v>13726</v>
       </c>
     </row>
     <row r="7">
@@ -1775,17 +1775,17 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>41885</v>
+        <v>41882</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9549</v>
+        <v>9491</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13600</v>
+        <v>13432</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>18964</v>
+        <v>18953</v>
       </c>
       <c r="H7" s="6" t="n">
         <v>10056</v>
@@ -1794,19 +1794,19 @@
         <v>11643</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>14829</v>
+        <v>14800</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>59969</v>
+        <v>60374</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>18522</v>
+        <v>18566</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>24411</v>
+        <v>24407</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>23935</v>
+        <v>24047</v>
       </c>
     </row>
     <row r="8">
@@ -1909,40 +1909,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>91305</v>
+        <v>90295</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>57697</v>
+        <v>57873</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>57939</v>
+        <v>58236</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>49399</v>
+        <v>48784</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>50678</v>
+        <v>51202</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>44012</v>
+        <v>44200</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>37705</v>
+        <v>37787</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25192</v>
+        <v>25794</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>147919</v>
+        <v>148300</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>107404</v>
+        <v>106421</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>100122</v>
+        <v>100235</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>80007</v>
+        <v>80943</v>
       </c>
     </row>
     <row r="11">
@@ -1953,40 +1953,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>112846</v>
+        <v>112972</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>73529</v>
+        <v>73118</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>72812</v>
+        <v>72738</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>65375</v>
+        <v>65089</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>66263</v>
+        <v>67117</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>57935</v>
+        <v>57949</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>45314</v>
+        <v>45354</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>39810</v>
+        <v>39750</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>175909</v>
+        <v>175861</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>128408</v>
+        <v>127308</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>116350</v>
+        <v>116399</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>102060</v>
+        <v>102294</v>
       </c>
     </row>
     <row r="12">
@@ -2089,40 +2089,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>75992</v>
+        <v>74411</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>57128</v>
+        <v>58288</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>77123</v>
+        <v>78188</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>74415</v>
+        <v>74663</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>48131</v>
+        <v>48216</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>49266</v>
+        <v>48328</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>51312</v>
+        <v>51427</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>61678</v>
+        <v>61911</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>128999</v>
+        <v>128445</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>113748</v>
+        <v>113292</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>135458</v>
+        <v>133947</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>141788</v>
+        <v>141598</v>
       </c>
     </row>
     <row r="15">
@@ -2133,40 +2133,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>95420</v>
+        <v>95322</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>76872</v>
+        <v>76666</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>95690</v>
+        <v>95548</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>93650</v>
+        <v>93559</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>61910</v>
+        <v>61353</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>63459</v>
+        <v>63570</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>64587</v>
+        <v>64924</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>74973</v>
+        <v>74448</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>153888</v>
+        <v>152664</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>136992</v>
+        <v>135938</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>157216</v>
+        <v>157580</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>164569</v>
+        <v>164638</v>
       </c>
     </row>
     <row r="16">
@@ -2269,40 +2269,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>74329</v>
+        <v>74304</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>59350</v>
+        <v>58950</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>49766</v>
+        <v>49624</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>70118</v>
+        <v>70059</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>25127</v>
+        <v>25729</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>19789</v>
+        <v>19956</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>38566</v>
+        <v>37708</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>94095</v>
+        <v>93395</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>104367</v>
+        <v>105246</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>83966</v>
+        <v>83807</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>91433</v>
+        <v>92685</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>170279</v>
+        <v>170577</v>
       </c>
     </row>
     <row r="19">
@@ -2313,40 +2313,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>93211</v>
+        <v>92969</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>76511</v>
+        <v>77073</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>68576</v>
+        <v>69494</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>91722</v>
+        <v>92267</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>34069</v>
+        <v>34114</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>32693</v>
+        <v>32292</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>50910</v>
+        <v>50725</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>109026</v>
+        <v>108279</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>125146</v>
+        <v>125251</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>105552</v>
+        <v>105640</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>115117</v>
+        <v>115802</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>198344</v>
+        <v>196288</v>
       </c>
     </row>
     <row r="20">
@@ -2449,40 +2449,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>36540</v>
+        <v>35511</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>25329</v>
+        <v>26136</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>28978</v>
+        <v>28374</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>40711</v>
+        <v>41008</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>4999</v>
+        <v>4902</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>18171</v>
+        <v>17452</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>21443</v>
+        <v>20754</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>45493</v>
+        <v>44807</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>43897</v>
+        <v>43776</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>47554</v>
+        <v>47458</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>53440</v>
+        <v>53520</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>89721</v>
+        <v>89054</v>
       </c>
     </row>
     <row r="23">
@@ -2493,40 +2493,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>44510</v>
+        <v>44415</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>36808</v>
+        <v>37161</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>40457</v>
+        <v>40450</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>55862</v>
+        <v>56139</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>11940</v>
+        <v>11942</v>
       </c>
       <c r="H23" s="6" t="n">
         <v>24582</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>29661</v>
+        <v>29686</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>54293</v>
+        <v>54481</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>55304</v>
+        <v>54912</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>60056</v>
+        <v>60383</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>68072</v>
+        <v>68013</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>107880</v>
+        <v>108082</v>
       </c>
     </row>
     <row r="24">
@@ -2629,40 +2629,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>335356</v>
+        <v>333454</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>228211</v>
+        <v>225928</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>243932</v>
+        <v>242825</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>266606</v>
+        <v>267142</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>159680</v>
+        <v>157988</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>153245</v>
+        <v>153769</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>172193</v>
+        <v>172626</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>250203</v>
+        <v>251637</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>500723</v>
+        <v>502178</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>388371</v>
+        <v>386937</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>422524</v>
+        <v>422231</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>527037</v>
+        <v>526152</v>
       </c>
     </row>
     <row r="27">
@@ -2673,40 +2673,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>372126</v>
+        <v>370998</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>259411</v>
+        <v>257870</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>277998</v>
+        <v>277190</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>303249</v>
+        <v>303889</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>182337</v>
+        <v>183550</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>177616</v>
+        <v>179150</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>193936</v>
+        <v>193601</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>279517</v>
+        <v>279116</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>547205</v>
+        <v>546356</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>430274</v>
+        <v>430132</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>462060</v>
+        <v>462327</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>573555</v>
+        <v>571769</v>
       </c>
     </row>
     <row r="28">
